--- a/medicine/Handicap/Isabelle_Hénault/Isabelle_Hénault.xlsx
+++ b/medicine/Handicap/Isabelle_Hénault/Isabelle_Hénault.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Isabelle_H%C3%A9nault</t>
+          <t>Isabelle_Hénault</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Isabelle Hénault (PhD) est une psychologue et une sexologue exerçant à l'Université du Québec à Montréal, au Canada[1]. Elle a développé un programme relationnel et d'éducation sexuelle adressé aux personnes autistes. Elle collabore à de nombreuses initiatives de recherche internationales impliquant l'éducation socio-sexuelle et les relations interpersonnelles. Elle est l'auteure de Asperger's Syndrome and Sexuality: From Adolescence through Adulthood.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Isabelle Hénault (PhD) est une psychologue et une sexologue exerçant à l'Université du Québec à Montréal, au Canada. Elle a développé un programme relationnel et d'éducation sexuelle adressé aux personnes autistes. Elle collabore à de nombreuses initiatives de recherche internationales impliquant l'éducation socio-sexuelle et les relations interpersonnelles. Elle est l'auteure de Asperger's Syndrome and Sexuality: From Adolescence through Adulthood.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Isabelle_H%C3%A9nault</t>
+          <t>Isabelle_Hénault</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Isabelle Hénault, Le syndrome d'Asperger et la sexualité: de la puberté à l'âge adulte, Chenelière éducation, 2005, 210 p. (ISBN 2-7650-0935-X et 9782765009351, lire en ligne)
 Isabelle Hénault, Sexualité et syndrome d'Asperger : Éducation sexuelle et intervention auprès de la personne autiste, De Boeck Supérieur, coll. « Questions de personne. Série TED », 2010, 224 p. (ISBN 280413783X et 9782804137830, lire en ligne)</t>
